--- a/products/11.xlsx
+++ b/products/11.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
